--- a/04_Tabelle_dei_volumi_e_operazioni.xlsx
+++ b/04_Tabelle_dei_volumi_e_operazioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyp\Documents\Programmazione\Basi di Dati - Progetto Gestione Zoo\Progetto-Laboratorio-BSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansitos-Notebook\Documents\GitHub\Progetto-Laboratorio-BSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BAC074-D8A1-4308-AB5F-FAE28FF943AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEED8CE-1B46-40D0-AAE5-81C4D9C6074D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8424" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Concetto</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
@@ -84,9 +83,6 @@
     <t>Appartiene</t>
   </si>
   <si>
-    <t>Visitare</t>
-  </si>
-  <si>
     <t>n° medio di abitazioni per area</t>
   </si>
   <si>
@@ -108,9 +104,6 @@
     <t>n° medio abitazioni assegnate per ciascun addetto alle pulizie</t>
   </si>
   <si>
-    <t>Tabella dei Volumi v1</t>
-  </si>
-  <si>
     <t>n° medio di gabbie per abitazione</t>
   </si>
   <si>
@@ -130,13 +123,88 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Visita</t>
+  </si>
+  <si>
+    <t>Riceve</t>
+  </si>
+  <si>
+    <t>Eseguito</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>Tabella delle operazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabella dei volumi </t>
+  </si>
+  <si>
+    <t>Operazione</t>
+  </si>
+  <si>
+    <t>Aggiunta esemplare</t>
+  </si>
+  <si>
+    <t>Rimozione esemplare</t>
+  </si>
+  <si>
+    <t>Rimozione esemplare da una gabbia</t>
+  </si>
+  <si>
+    <t>Frequenza</t>
+  </si>
+  <si>
+    <t>Aggiunta visite</t>
+  </si>
+  <si>
+    <t>al gg</t>
+  </si>
+  <si>
+    <t>Aggiunta esemplare ad una gabbia</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Modifica assegnazione addetti alle pulizie</t>
+  </si>
+  <si>
+    <t>Aggiunta o rimozione dipendenti</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add nr </t>
+  </si>
+  <si>
+    <t>Modifica struttura gerarchica area/abitazione/gabbia</t>
+  </si>
+  <si>
+    <t>Lettura informazioni (attributi) sugli esemplari</t>
+  </si>
+  <si>
+    <t>Ricerca collocazione degli esemplari</t>
+  </si>
+  <si>
+    <t>Lettura informazioni sui dipendenti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipotesi badge (CF cose varie)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,14 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,8 +236,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +272,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -280,6 +380,125 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -318,141 +537,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -463,6 +564,57 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,71 +623,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Colore 6" xfId="2" builtinId="51"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -815,307 +968,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G21"/>
+  <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="2.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="50.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="2.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="45.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="K5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="41"/>
+      <c r="O5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="13">
+        <f>E7/E6</f>
+        <v>10</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="46">
+        <v>1</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>100</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="9">
+        <f>E8/E7</f>
+        <v>50</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="10">
+        <f>1-(E10/E8)*1</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="42">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>80</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9">
+        <f>E10/E9</f>
+        <v>56.25</v>
+      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4500</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="H10" s="9">
+        <f>E10/E15</f>
+        <v>47.368421052631582</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="42">
+        <f>(H20/30)*E10</f>
+        <v>150</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9">
+        <f>E8/E11</f>
+        <v>50</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <f>E6*E7</f>
+        <v>1000</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <f>E8</f>
+        <v>5000</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5">
+        <f>E10</f>
+        <v>4500</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9">
+        <f>E8-E10</f>
+        <v>500</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="42">
+        <f>E10</f>
+        <v>4500</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>95</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="10">
+        <f>1-(E15/E7)*1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="42">
+        <f>E10/2</f>
+        <v>2250</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5">
+        <f>E10</f>
+        <v>4500</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5">
+        <f>E11*H17</f>
+        <v>300</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5">
+        <f>E20</f>
+        <v>45000</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5">
+        <f>E20</f>
+        <v>45000</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6">
+        <f>H20*(H21/2)*E10</f>
+        <v>45000</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="19">
-        <f>D6/D5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>100</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="15">
-        <f>D7/D6</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="J20" s="45"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="11">
         <v>20</v>
       </c>
-      <c r="G7" s="16">
-        <f>1-(D9/D7)*1</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8">
-        <v>80</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="15">
-        <f>D9/D8</f>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8">
-        <v>4500</v>
-      </c>
-      <c r="F9" s="14" t="s">
+    </row>
+    <row r="22" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+      <c r="G22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="15">
-        <f>D9/D14</f>
-        <v>47.368421052631582</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8">
-        <v>100</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="15">
-        <f>D7/D10</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8">
-        <f>D5*D6</f>
-        <v>1000</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8">
-        <f>D7</f>
-        <v>5000</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8">
-        <f>D9</f>
-        <v>4500</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="15">
-        <f>D7-D9</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8">
-        <v>95</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="16">
-        <f>1-(D14/D6)*1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8">
-        <f>D9</f>
-        <v>4500</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8">
-        <f>D10*G16</f>
-        <v>300</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="9">
-        <f>G17*(G18/2)*D9</f>
-        <v>45000</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="F19" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="30"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="15"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F19:G20"/>
+  <mergeCells count="3">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G7" formula="1"/>
+    <ignoredError sqref="H8" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/04_Tabelle_dei_volumi_e_operazioni.xlsx
+++ b/04_Tabelle_dei_volumi_e_operazioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansitos-Notebook\Documents\GitHub\Progetto-Laboratorio-BSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEED8CE-1B46-40D0-AAE5-81C4D9C6074D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8FDF9-49B0-40C4-B002-F22A3893DD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8424" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1644" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,58 +146,58 @@
     <t>Operazione</t>
   </si>
   <si>
-    <t>Aggiunta esemplare</t>
-  </si>
-  <si>
     <t>Rimozione esemplare</t>
   </si>
   <si>
-    <t>Rimozione esemplare da una gabbia</t>
-  </si>
-  <si>
     <t>Frequenza</t>
   </si>
   <si>
-    <t>Aggiunta visite</t>
-  </si>
-  <si>
     <t>al gg</t>
   </si>
   <si>
-    <t>Aggiunta esemplare ad una gabbia</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>Modifica assegnazione addetti alle pulizie</t>
-  </si>
-  <si>
-    <t>Aggiunta o rimozione dipendenti</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add nr </t>
-  </si>
-  <si>
-    <t>Modifica struttura gerarchica area/abitazione/gabbia</t>
-  </si>
-  <si>
-    <t>Lettura informazioni (attributi) sugli esemplari</t>
-  </si>
-  <si>
-    <t>Ricerca collocazione degli esemplari</t>
-  </si>
-  <si>
-    <t>Lettura informazioni sui dipendenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ipotesi badge (CF cose varie)</t>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Aggiunta nuovo esemplare</t>
+  </si>
+  <si>
+    <t>a sett.</t>
+  </si>
+  <si>
+    <t>Ricerca collocazione di un esemplare</t>
+  </si>
+  <si>
+    <t>Lettura informazioni relative ad un esemplare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spostamento di un esemplare </t>
+  </si>
+  <si>
+    <t>Aggiunta di una nuova visita</t>
+  </si>
+  <si>
+    <t>Lettura informazioni di visite già effettutate</t>
+  </si>
+  <si>
+    <t>Si suppone che in ogni visita vengano lette mediamente le informazioni relative alle due visite precedenti.</t>
+  </si>
+  <si>
+    <t>Lettura stipendio di ciascun dipendente dello zoo</t>
+  </si>
+  <si>
+    <t>al mese</t>
+  </si>
+  <si>
+    <t>Veterinario</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Aggiunta, modifica e rimozione di gabbie</t>
+  </si>
+  <si>
+    <t>Aggiunta, modifica e rimozione di abitazioni</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +296,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EC16B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -532,6 +538,54 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -543,7 +597,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -560,9 +614,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -611,17 +662,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,50 +701,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -694,6 +766,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8EC16B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -968,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O24"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,17 +1063,17 @@
     <col min="9" max="9" width="8.88671875" style="2"/>
     <col min="10" max="10" width="2.77734375" style="2" customWidth="1"/>
     <col min="11" max="11" width="45.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="2" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1004,446 +1081,462 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="18" t="s">
+    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="K5" s="18" t="s">
+      <c r="H5" s="30"/>
+      <c r="K5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="41"/>
-      <c r="O5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="20" t="s">
+      <c r="L5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f>E7/E6</f>
         <v>10</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="46">
-        <v>1</v>
-      </c>
-      <c r="M6" s="37" t="s">
+      <c r="J6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="48">
+        <v>10</v>
+      </c>
+      <c r="M6" s="49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5">
         <v>100</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f>E8/E7</f>
         <v>50</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="38" t="s">
+      <c r="J7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="50">
+        <v>3</v>
+      </c>
+      <c r="M7" s="51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5">
         <v>5000</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f>1-(E10/E8)*1</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="42">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="21" t="s">
+      <c r="L8" s="52">
+        <f>E10</f>
+        <v>4500</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="5">
         <v>80</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f>E10/E9</f>
         <v>56.25</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="50">
+        <f>E10/5</f>
+        <v>900</v>
+      </c>
+      <c r="M9" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="21" t="s">
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
         <v>4500</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f>E10/E15</f>
         <v>47.368421052631582</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="42">
-        <f>(H20/30)*E10</f>
-        <v>150</v>
-      </c>
-      <c r="M10" s="38" t="s">
+      <c r="J10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="50">
+        <v>50</v>
+      </c>
+      <c r="M10" s="51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5">
         <v>100</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f>E8/E11</f>
         <v>50</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="35" t="s">
+      <c r="J11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="38" t="s">
+      <c r="L11" s="50">
+        <f>E10*H20/4</f>
+        <v>562.5</v>
+      </c>
+      <c r="M11" s="51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5">
         <f>E6*E7</f>
         <v>1000</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="35" t="s">
+      <c r="H12" s="8"/>
+      <c r="J12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="50">
+        <f>L11*2</f>
+        <v>1125</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="22" t="s">
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="5">
         <f>E8</f>
         <v>5000</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="35" t="s">
+      <c r="H13" s="8"/>
+      <c r="J13" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="50">
+        <f>E11+E21</f>
+        <v>120</v>
+      </c>
+      <c r="M13" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="22" t="s">
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="5">
         <f>E10</f>
         <v>4500</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f>E8-E10</f>
         <v>500</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="42">
-        <f>E10</f>
-        <v>4500</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="22" t="s">
+      <c r="J14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="46">
+        <v>30</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="5">
         <v>95</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f>1-(E15/E7)*1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="42">
-        <f>E10/2</f>
-        <v>2250</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="22" t="s">
+      <c r="J15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="46">
+        <v>5</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="5">
         <f>E10</f>
         <v>4500</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H16" s="8"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5">
         <f>E11*H17</f>
         <v>300</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>3</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="38" t="s">
-        <v>42</v>
-      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="5">
         <f>E20</f>
-        <v>45000</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="38" t="s">
-        <v>42</v>
-      </c>
+        <v>270000</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="5">
         <f>E20</f>
-        <v>45000</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="38" t="s">
-        <v>42</v>
-      </c>
+        <v>270000</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="6">
-        <f>H20*(H21/2)*E10</f>
-        <v>45000</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="E20" s="5">
+        <f>H20*E10*12*H21/2</f>
+        <v>270000</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="36"/>
+      <c r="H20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="26"/>
       <c r="L20" s="47"/>
-      <c r="M20" s="39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="12" t="s">
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="43">
+        <v>20</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="15"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
+      <c r="D23" s="14"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D24" s="15"/>
+      <c r="D24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/04_Tabelle_dei_volumi_e_operazioni.xlsx
+++ b/04_Tabelle_dei_volumi_e_operazioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansitos-Notebook\Documents\GitHub\Progetto-Laboratorio-BSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyp\Documents\Programmazione\Basi di Dati - Progetto Gestione Zoo\Progetto-Laboratorio-BSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8FDF9-49B0-40C4-B002-F22A3893DD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E76FD2-CEE3-43A1-9245-4A83E15C620C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1644" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>Concetto</t>
   </si>
@@ -176,9 +174,6 @@
     <t>Aggiunta di una nuova visita</t>
   </si>
   <si>
-    <t>Lettura informazioni di visite già effettutate</t>
-  </si>
-  <si>
     <t>Si suppone che in ogni visita vengano lette mediamente le informazioni relative alle due visite precedenti.</t>
   </si>
   <si>
@@ -198,6 +193,9 @@
   </si>
   <si>
     <t>Aggiunta, modifica e rimozione di abitazioni</t>
+  </si>
+  <si>
+    <t>Lettura informazioni di visite già effettuate</t>
   </si>
 </sst>
 </file>
@@ -303,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -589,6 +587,19 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -597,7 +608,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -641,12 +652,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -683,6 +688,69 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,57 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -768,6 +785,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF8F8FF"/>
       <color rgb="FF8EC16B"/>
     </mruColors>
   </colors>
@@ -1045,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,7 +1087,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1083,29 +1101,29 @@
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="K5" s="17" t="s">
+      <c r="H5" s="49"/>
+      <c r="K5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="36"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4">
@@ -1118,24 +1136,24 @@
         <f>E7/E6</f>
         <v>10</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="38">
         <v>10</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5">
@@ -1148,24 +1166,24 @@
         <f>E8/E7</f>
         <v>50</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="40">
         <v>3</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5">
@@ -1178,25 +1196,25 @@
         <f>1-(E10/E8)*1</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="42">
         <f>E10</f>
         <v>4500</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="5">
@@ -1209,25 +1227,25 @@
         <f>E10/E9</f>
         <v>56.25</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="40">
         <f>E10/5</f>
         <v>900</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -1240,24 +1258,24 @@
         <f>E10/E15</f>
         <v>47.368421052631582</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="40">
         <v>50</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5">
@@ -1270,25 +1288,25 @@
         <f>E8/E11</f>
         <v>50</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="40">
         <f>E10*H20/4</f>
         <v>562.5</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5">
@@ -1299,28 +1317,28 @@
         <v>29</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="50">
+      <c r="K12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="40">
         <f>L11*2</f>
         <v>1125</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="41" t="s">
         <v>42</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="5">
@@ -1331,25 +1349,25 @@
         <v>29</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="J13" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="50">
+      <c r="J13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="40">
         <f>E11+E21</f>
         <v>120</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>50</v>
+      <c r="M13" s="41" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="5">
@@ -1363,24 +1381,24 @@
         <f>E8-E10</f>
         <v>500</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="46">
+      <c r="K14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="36">
         <v>30</v>
       </c>
-      <c r="M14" s="27" t="s">
-        <v>50</v>
+      <c r="M14" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="5">
@@ -1393,24 +1411,24 @@
         <f>1-(E15/E7)*1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="46">
+      <c r="K15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="36">
         <v>5</v>
       </c>
-      <c r="M15" s="27" t="s">
-        <v>50</v>
+      <c r="M15" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="5">
@@ -1421,16 +1439,16 @@
         <v>29</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="27"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5">
@@ -1443,56 +1461,60 @@
       <c r="H17" s="10">
         <v>3</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="27"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="5">
         <f>E20</f>
         <v>270000</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="27"/>
+      <c r="G18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="5">
         <f>E20</f>
         <v>270000</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="27"/>
+      <c r="G19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="5">
-        <f>H20*E10*12*H21/2</f>
+        <f>H20*E10*12*H23/2</f>
         <v>270000</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -1501,47 +1523,53 @@
       <c r="H20" s="8">
         <v>0.5</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="43">
+      <c r="D21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="33">
         <v>20</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="47"/>
+    </row>
+    <row r="22" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="14"/>
+      <c r="G23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H23" s="45">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="3"/>
-      <c r="G22" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="14"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D24" s="14"/>
+      <c r="G24" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="51"/>
+    </row>
+    <row r="25" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="G24:H25"/>
     <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04_Tabelle_dei_volumi_e_operazioni.xlsx
+++ b/04_Tabelle_dei_volumi_e_operazioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyp\Documents\Programmazione\Basi di Dati - Progetto Gestione Zoo\Progetto-Laboratorio-BSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Progetto-Laboratorio-BSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E76FD2-CEE3-43A1-9245-4A83E15C620C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24C5122-A239-48B2-A1E9-9F055F73B639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23850" yWindow="2070" windowWidth="28965" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Concetto</t>
   </si>
@@ -96,9 +98,6 @@
     <t>media gabbie assegnate a ciascun addetto</t>
   </si>
   <si>
-    <t>gabbie vuote</t>
-  </si>
-  <si>
     <t>n° medio abitazioni assegnate per ciascun addetto alle pulizie</t>
   </si>
   <si>
@@ -111,15 +110,9 @@
     <t>media esemplari per abitazione (escluse quelle vuote)</t>
   </si>
   <si>
-    <t>n° visite per esemplare mensili</t>
-  </si>
-  <si>
     <t>durata (in anni) prevista utilizzo database</t>
   </si>
   <si>
-    <t>NB: si ipotizza che: il numero di animali nello zoo rimanga pressochè costante</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -150,9 +143,6 @@
     <t>Frequenza</t>
   </si>
   <si>
-    <t>al gg</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -174,9 +164,6 @@
     <t>Aggiunta di una nuova visita</t>
   </si>
   <si>
-    <t>Si suppone che in ogni visita vengano lette mediamente le informazioni relative alle due visite precedenti.</t>
-  </si>
-  <si>
     <t>Lettura stipendio di ciascun dipendente dello zoo</t>
   </si>
   <si>
@@ -196,6 +183,42 @@
   </si>
   <si>
     <t>Lettura informazioni di visite già effettuate</t>
+  </si>
+  <si>
+    <t>si suppone che una gabbia vuota sia comunque assegnata</t>
+  </si>
+  <si>
+    <t>n° gabbie vuote</t>
+  </si>
+  <si>
+    <t>n° medio visite per esemplare mensili</t>
+  </si>
+  <si>
+    <t>n° medio visite effettuate da veterinario dopo 10 anni</t>
+  </si>
+  <si>
+    <t>NB: si ipotizza che il numero di animali nello zoo rimanga pressochè costante, inoltre il numero di visite è relativo a un periodo di 10 anni (metà vita del database).</t>
+  </si>
+  <si>
+    <t>Si suppone che in ogni visita vengano lette mediamente</t>
+  </si>
+  <si>
+    <t>al gg.</t>
+  </si>
+  <si>
+    <t>Esemplare * n°medio visite mensili * 0.25</t>
+  </si>
+  <si>
+    <t>le informazioni relative alle due visite precedenti.</t>
+  </si>
+  <si>
+    <t>Aggiunta, modifica e rimozione dipendenti</t>
+  </si>
+  <si>
+    <t>Modifica della struttura gerarchica area/abitazione/gabbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /</t>
   </si>
 </sst>
 </file>
@@ -301,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -362,17 +385,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -471,28 +483,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -600,6 +590,15 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -608,7 +607,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -619,34 +618,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -658,97 +657,73 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,23 +732,59 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1063,63 +1074,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N25"/>
+  <dimension ref="B2:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="2.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="50.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
-    <col min="10" max="10" width="2.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="45.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2"/>
+    <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="6" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="7.140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="56"/>
+    </row>
+    <row r="4" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="49"/>
+      <c r="H5" s="41"/>
+      <c r="J5" s="57" t="s">
+        <v>61</v>
+      </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="55"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
@@ -1137,19 +1152,19 @@
         <v>10</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="38">
-        <v>10</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="L6" s="52">
+        <v>5</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
@@ -1160,26 +1175,26 @@
         <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="8">
         <f>E8/E7</f>
         <v>50</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="40">
-        <v>3</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="L7" s="53">
+        <v>5</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1197,20 +1212,20 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="42">
+        <v>39</v>
+      </c>
+      <c r="L8" s="54">
         <f>E10</f>
         <v>4500</v>
       </c>
-      <c r="M8" s="43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="18" t="s">
         <v>3</v>
       </c>
@@ -1228,20 +1243,20 @@
         <v>56.25</v>
       </c>
       <c r="J9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="40">
+      <c r="L9" s="53">
         <f>E10/5</f>
         <v>900</v>
       </c>
-      <c r="M9" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="18" t="s">
         <v>3</v>
       </c>
@@ -1252,26 +1267,26 @@
         <v>4500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="8">
         <f>E10/E15</f>
         <v>47.368421052631582</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="40">
-        <v>50</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="L10" s="53">
+        <v>10</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
         <v>3</v>
       </c>
@@ -1289,20 +1304,23 @@
         <v>50</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="40">
+        <v>42</v>
+      </c>
+      <c r="L11" s="53">
         <f>E10*H20/4</f>
         <v>562.5</v>
       </c>
-      <c r="M11" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="19" t="s">
         <v>10</v>
       </c>
@@ -1314,27 +1332,29 @@
         <v>1000</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>26</v>
+      </c>
       <c r="J12" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="40">
+        <v>49</v>
+      </c>
+      <c r="L12" s="53">
         <f>L11*2</f>
         <v>1125</v>
       </c>
-      <c r="M12" s="41" t="s">
-        <v>42</v>
+      <c r="M12" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
@@ -1345,25 +1365,30 @@
         <f>E8</f>
         <v>5000</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="8"/>
+      <c r="G13" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="40">
+        <v>43</v>
+      </c>
+      <c r="L13" s="53">
         <f>E11+E21</f>
         <v>120</v>
       </c>
-      <c r="M13" s="41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="19" t="s">
         <v>10</v>
       </c>
@@ -1375,26 +1400,26 @@
         <v>4500</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H14" s="8">
         <f>E8-E10</f>
         <v>500</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="36">
+        <v>47</v>
+      </c>
+      <c r="L14" s="55">
         <v>30</v>
       </c>
-      <c r="M14" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
         <v>10</v>
       </c>
@@ -1405,26 +1430,26 @@
         <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="9">
         <f>1-(E15/E7)*1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="36">
+        <v>48</v>
+      </c>
+      <c r="L15" s="55">
         <v>5</v>
       </c>
-      <c r="M15" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>10</v>
       </c>
@@ -1436,15 +1461,25 @@
         <v>4500</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="55">
+        <v>5</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
         <v>10</v>
       </c>
@@ -1456,69 +1491,77 @@
         <v>300</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="10">
         <v>3</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="23"/>
+      <c r="J17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="L17" s="36"/>
       <c r="M17" s="25"/>
     </row>
-    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5">
         <f>E20</f>
         <v>270000</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>26</v>
+      </c>
       <c r="J18" s="30"/>
       <c r="K18" s="23"/>
       <c r="L18" s="36"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5">
         <f>E20</f>
         <v>270000</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>26</v>
+      </c>
       <c r="J19" s="30"/>
       <c r="K19" s="23"/>
       <c r="L19" s="36"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20" s="5">
         <f>H20*E10*12*H23/2</f>
         <v>270000</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H20" s="8">
         <v>0.5</v>
@@ -1528,49 +1571,49 @@
       <c r="L20" s="37"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E21" s="33">
         <v>20</v>
       </c>
-      <c r="G21" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="47"/>
-    </row>
-    <row r="22" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="46">
+        <f>E20/E21</f>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="14"/>
-      <c r="G23" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="45">
+      <c r="G23" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="39">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="14"/>
-      <c r="G24" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="51"/>
-    </row>
-    <row r="25" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-    </row>
+      <c r="G24" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G24:H25"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04_Tabelle_dei_volumi_e_operazioni.xlsx
+++ b/04_Tabelle_dei_volumi_e_operazioni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Progetto-Laboratorio-BSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele\Documents\Programmazione\Basi di Dati - Progetto Gestione Zoo\Progetto-Laboratorio-BSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24C5122-A239-48B2-A1E9-9F055F73B639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02511444-664C-4726-952E-3CF930769ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23850" yWindow="2070" windowWidth="28965" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -726,6 +724,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,48 +776,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1107,7 @@
       <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="56"/>
+      <c r="AA3" s="52"/>
     </row>
     <row r="4" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1119,20 +1117,20 @@
       <c r="E5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="J5" s="57" t="s">
+      <c r="H5" s="55"/>
+      <c r="J5" s="53" t="s">
         <v>61</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="43"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
@@ -1157,10 +1155,10 @@
       <c r="K6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="48">
         <v>5</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="44" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1187,10 +1185,10 @@
       <c r="K7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="49">
         <v>5</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="45" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1217,11 +1215,11 @@
       <c r="K8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="50">
         <f>E10</f>
         <v>4500</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="46" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1248,11 +1246,11 @@
       <c r="K9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="49">
         <f>E10/5</f>
         <v>900</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="45" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1279,10 +1277,10 @@
       <c r="K10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="49">
         <v>10</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="45" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1309,11 +1307,11 @@
       <c r="K11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="49">
         <f>E10*H20/4</f>
         <v>562.5</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="M11" s="45" t="s">
         <v>38</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1334,7 +1332,7 @@
       <c r="G12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="41" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -1343,11 +1341,11 @@
       <c r="K12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="49">
         <f>L11*2</f>
         <v>1125</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="M12" s="45" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1365,10 +1363,10 @@
         <f>E8</f>
         <v>5000</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="41" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="34" t="s">
@@ -1377,11 +1375,11 @@
       <c r="K13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="49">
         <f>E11+E21</f>
         <v>120</v>
       </c>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="45" t="s">
         <v>44</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -1412,10 +1410,10 @@
       <c r="K14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="51">
         <v>30</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1442,10 +1440,10 @@
       <c r="K15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="51">
         <v>5</v>
       </c>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1463,7 +1461,7 @@
       <c r="G16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="41" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="30" t="s">
@@ -1472,7 +1470,7 @@
       <c r="K16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="51">
         <v>5</v>
       </c>
       <c r="M16" s="25" t="s">
@@ -1519,7 +1517,7 @@
       <c r="G18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="41" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="30"/>
@@ -1541,7 +1539,7 @@
       <c r="G19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="41" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="30"/>
@@ -1581,10 +1579,10 @@
       <c r="E21" s="33">
         <v>20</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="42">
         <f>E20/E21</f>
         <v>13500</v>
       </c>
